--- a/minggu8/PWL_POS/public/template_barang.xlsx
+++ b/minggu8/PWL_POS/public/template_barang.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/64de8a4329e6a169/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\PemrogramanWebLanjut\minggu8\PWL_POS\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5731D38-D868-417A-866D-0643CB66138D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192261BF-0994-49C8-8DD8-459C912E3245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{1D73672C-C764-431E-A165-D46C366366B2}"/>
+    <workbookView xWindow="6600" yWindow="1890" windowWidth="13800" windowHeight="8700" xr2:uid="{1D73672C-C764-431E-A165-D46C366366B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Lembar1" sheetId="1" r:id="rId1"/>
@@ -51,41 +51,41 @@
     <t>harga_jual</t>
   </si>
   <si>
-    <t>BRG001</t>
-  </si>
-  <si>
-    <t>TV LED 33"</t>
-  </si>
-  <si>
-    <t>BRG002</t>
-  </si>
-  <si>
-    <t>Laptop ASUS</t>
-  </si>
-  <si>
-    <t>BRG005</t>
-  </si>
-  <si>
-    <t>Snack</t>
-  </si>
-  <si>
-    <t>BRG006</t>
-  </si>
-  <si>
-    <t>Pasta</t>
-  </si>
-  <si>
-    <t>BRG015</t>
-  </si>
-  <si>
-    <t>Burger</t>
+    <t>BRG007</t>
+  </si>
+  <si>
+    <t>BRG003</t>
+  </si>
+  <si>
+    <t>BRG010</t>
+  </si>
+  <si>
+    <t>BRG011</t>
+  </si>
+  <si>
+    <t>BRG012</t>
+  </si>
+  <si>
+    <t>Mouse</t>
+  </si>
+  <si>
+    <t>Kabel Data</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>Keyboard</t>
+  </si>
+  <si>
+    <t>Laptop</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,13 +94,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -133,14 +126,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -457,10 +447,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C93D3C-99BC-4851-A436-4208F39B8080}">
   <sheetPr codeName="Lembar1"/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,7 +462,7 @@
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -489,7 +479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -497,73 +487,72 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2500000</v>
+      </c>
+      <c r="E2" s="2">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1">
-        <v>3000000</v>
-      </c>
-      <c r="E2" s="2">
-        <v>2500000</v>
-      </c>
-      <c r="F2" s="3"/>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>15000</v>
+      </c>
+      <c r="E3" s="1">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3">
-        <v>8000000</v>
-      </c>
-      <c r="E3" s="1">
-        <v>7000000</v>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2">
+        <v>30000</v>
+      </c>
+      <c r="E5" s="2">
+        <v>29000</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2">
-        <v>10000</v>
-      </c>
-      <c r="E4" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2">
-        <v>20000</v>
-      </c>
-      <c r="E5" s="2">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>14</v>
